--- a/class_schedules/LATIN AMERICAN STUDIES (LATS).xlsx
+++ b/class_schedules/LATIN AMERICAN STUDIES (LATS).xlsx
@@ -14,114 +14,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>999</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>900B</t>
+  </si>
+  <si>
+    <t>901</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
-    <t>14184</t>
-  </si>
-  <si>
-    <t>13099</t>
-  </si>
-  <si>
-    <t>2938</t>
-  </si>
-  <si>
-    <t>2939</t>
-  </si>
-  <si>
-    <t>13970</t>
-  </si>
-  <si>
-    <t>14563</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>13765</t>
+  </si>
+  <si>
+    <t>13583</t>
+  </si>
+  <si>
+    <t>14828</t>
+  </si>
+  <si>
+    <t>13584</t>
+  </si>
+  <si>
+    <t>13586</t>
+  </si>
+  <si>
+    <t>13588</t>
+  </si>
+  <si>
+    <t>13589</t>
+  </si>
+  <si>
+    <t>13661</t>
+  </si>
+  <si>
+    <t>14143</t>
+  </si>
+  <si>
+    <t>14829</t>
+  </si>
+  <si>
+    <t>13590</t>
+  </si>
+  <si>
+    <t>13597</t>
+  </si>
+  <si>
+    <t>13604</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>Music As Social Life MWF</t>
-  </si>
-  <si>
-    <t>General Music Theory TR</t>
-  </si>
-  <si>
-    <t>Senior Honors</t>
-  </si>
-  <si>
-    <t>Oberlin A&amp;S Chamber</t>
-  </si>
-  <si>
-    <t>Musical</t>
-  </si>
-  <si>
-    <t>0230-0320pm</t>
-  </si>
-  <si>
-    <t>0935-1050am</t>
+    <t>Intro to Oberlin Life/Learning</t>
+  </si>
+  <si>
+    <t>Intro to Bonner Life</t>
+  </si>
+  <si>
+    <t>Oberlin F1RST</t>
+  </si>
+  <si>
+    <t>Approaches to Learning</t>
+  </si>
+  <si>
+    <t>Approaches to Active Reading</t>
+  </si>
+  <si>
+    <t>Intro to Peer Helping Skills 1</t>
+  </si>
+  <si>
+    <t>Intro to Peer Helping Skills 2</t>
+  </si>
+  <si>
+    <t>Intro to Academic</t>
+  </si>
+  <si>
+    <t>Intro to Academic Advising</t>
+  </si>
+  <si>
+    <t>Leadership Development</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Advising</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>0800-0900pm</t>
+  </si>
+  <si>
+    <t>0700-0900pm</t>
+  </si>
+  <si>
+    <t>0430-0600pm</t>
+  </si>
+  <si>
+    <t>1000-1050am</t>
+  </si>
+  <si>
+    <t>0430-0615pm</t>
   </si>
   <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Studies</t>
-  </si>
-  <si>
-    <t>CBIB</t>
-  </si>
-  <si>
-    <t>Capston</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>Alegant</t>
-  </si>
-  <si>
-    <t>Fraser Jennifer</t>
-  </si>
-  <si>
-    <t>Staff Con</t>
-  </si>
-  <si>
-    <t>Brian D</t>
-  </si>
-  <si>
-    <t>Jenkins Christophe</t>
-  </si>
-  <si>
-    <t>TBA Staff</t>
+    <t>0230-0420pm</t>
+  </si>
+  <si>
+    <t>Hamdan Dana</t>
+  </si>
+  <si>
+    <t>McVety Brandi</t>
+  </si>
+  <si>
+    <t>Burgdorf Monique</t>
+  </si>
+  <si>
+    <t>Brandt Anna</t>
+  </si>
+  <si>
+    <t>Hayden Matthew</t>
+  </si>
+  <si>
+    <t>Julian Thomas</t>
   </si>
 </sst>
 </file>
@@ -479,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +606,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -560,31 +641,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -595,31 +676,31 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -630,31 +711,31 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -665,31 +746,31 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -700,31 +781,276 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
